--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2271.056816906615</v>
+        <v>2652.673495804935</v>
       </c>
       <c r="AB2" t="n">
-        <v>3107.360128847376</v>
+        <v>3629.504904655754</v>
       </c>
       <c r="AC2" t="n">
-        <v>2810.798039357398</v>
+        <v>3283.1100505974</v>
       </c>
       <c r="AD2" t="n">
-        <v>2271056.816906615</v>
+        <v>2652673.495804935</v>
       </c>
       <c r="AE2" t="n">
-        <v>3107360.128847376</v>
+        <v>3629504.904655754</v>
       </c>
       <c r="AF2" t="n">
         <v>2.05701404671746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.30787037037038</v>
       </c>
       <c r="AH2" t="n">
-        <v>2810798.039357398</v>
+        <v>3283110.050597399</v>
       </c>
     </row>
     <row r="3">
@@ -3058,28 +3058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1399.014819051443</v>
+        <v>1672.95776397593</v>
       </c>
       <c r="AB3" t="n">
-        <v>1914.193795604009</v>
+        <v>2289.014618359471</v>
       </c>
       <c r="AC3" t="n">
-        <v>1731.505826339428</v>
+        <v>2070.554275835436</v>
       </c>
       <c r="AD3" t="n">
-        <v>1399014.819051443</v>
+        <v>1672957.76397593</v>
       </c>
       <c r="AE3" t="n">
-        <v>1914193.795604009</v>
+        <v>2289014.618359471</v>
       </c>
       <c r="AF3" t="n">
         <v>2.897367138385211e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1731505.826339428</v>
+        <v>2070554.275835436</v>
       </c>
     </row>
     <row r="4">
@@ -3164,28 +3164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1192.809908429538</v>
+        <v>1437.488774769465</v>
       </c>
       <c r="AB4" t="n">
-        <v>1632.055139772504</v>
+        <v>1966.835559168541</v>
       </c>
       <c r="AC4" t="n">
-        <v>1476.294087836391</v>
+        <v>1779.12353387254</v>
       </c>
       <c r="AD4" t="n">
-        <v>1192809.908429538</v>
+        <v>1437488.774769465</v>
       </c>
       <c r="AE4" t="n">
-        <v>1632055.139772504</v>
+        <v>1966835.559168541</v>
       </c>
       <c r="AF4" t="n">
         <v>3.226348355165259e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.64583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1476294.087836391</v>
+        <v>1779123.53387254</v>
       </c>
     </row>
     <row r="5">
@@ -3270,28 +3270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1101.129615386185</v>
+        <v>1326.198284796493</v>
       </c>
       <c r="AB5" t="n">
-        <v>1506.614118181518</v>
+        <v>1814.563000997618</v>
       </c>
       <c r="AC5" t="n">
-        <v>1362.824981288469</v>
+        <v>1641.383654937572</v>
       </c>
       <c r="AD5" t="n">
-        <v>1101129.615386185</v>
+        <v>1326198.284796493</v>
       </c>
       <c r="AE5" t="n">
-        <v>1506614.118181518</v>
+        <v>1814563.000997618</v>
       </c>
       <c r="AF5" t="n">
         <v>3.402229904284684e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.13425925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>1362824.981288469</v>
+        <v>1641383.654937572</v>
       </c>
     </row>
     <row r="6">
@@ -3376,28 +3376,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1033.250492325941</v>
+        <v>1258.352316125172</v>
       </c>
       <c r="AB6" t="n">
-        <v>1413.738907394931</v>
+        <v>1721.733153508625</v>
       </c>
       <c r="AC6" t="n">
-        <v>1278.813650268177</v>
+        <v>1557.413357805419</v>
       </c>
       <c r="AD6" t="n">
-        <v>1033250.492325941</v>
+        <v>1258352.316125172</v>
       </c>
       <c r="AE6" t="n">
-        <v>1413738.907394931</v>
+        <v>1721733.153508625</v>
       </c>
       <c r="AF6" t="n">
         <v>3.516681737327701e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.62962962962964</v>
       </c>
       <c r="AH6" t="n">
-        <v>1278813.650268177</v>
+        <v>1557413.357805419</v>
       </c>
     </row>
     <row r="7">
@@ -3482,28 +3482,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>983.0988630551964</v>
+        <v>1208.166521435647</v>
       </c>
       <c r="AB7" t="n">
-        <v>1345.119235692968</v>
+        <v>1653.066735173414</v>
       </c>
       <c r="AC7" t="n">
-        <v>1216.742943725135</v>
+        <v>1495.300366062197</v>
       </c>
       <c r="AD7" t="n">
-        <v>983098.8630551964</v>
+        <v>1208166.521435647</v>
       </c>
       <c r="AE7" t="n">
-        <v>1345119.235692968</v>
+        <v>1653066.735173414</v>
       </c>
       <c r="AF7" t="n">
         <v>3.597774386806048e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.62268518518518</v>
       </c>
       <c r="AH7" t="n">
-        <v>1216742.943725135</v>
+        <v>1495300.366062197</v>
       </c>
     </row>
     <row r="8">
@@ -3588,28 +3588,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>964.1627827553875</v>
+        <v>1179.408765476566</v>
       </c>
       <c r="AB8" t="n">
-        <v>1319.210055225867</v>
+        <v>1613.719104767547</v>
       </c>
       <c r="AC8" t="n">
-        <v>1193.30649907805</v>
+        <v>1459.70801827752</v>
       </c>
       <c r="AD8" t="n">
-        <v>964162.7827553875</v>
+        <v>1179408.765476566</v>
       </c>
       <c r="AE8" t="n">
-        <v>1319210.055225867</v>
+        <v>1613719.104767547</v>
       </c>
       <c r="AF8" t="n">
         <v>3.634252518427578e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.18287037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1193306.49907805</v>
+        <v>1459708.01827752</v>
       </c>
     </row>
     <row r="9">
@@ -3694,28 +3694,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>962.5671880929511</v>
+        <v>1177.81317081413</v>
       </c>
       <c r="AB9" t="n">
-        <v>1317.026892216053</v>
+        <v>1611.535941757734</v>
       </c>
       <c r="AC9" t="n">
-        <v>1191.331694081804</v>
+        <v>1457.733213281274</v>
       </c>
       <c r="AD9" t="n">
-        <v>962567.1880929512</v>
+        <v>1177813.17081413</v>
       </c>
       <c r="AE9" t="n">
-        <v>1317026.892216053</v>
+        <v>1611535.941757734</v>
       </c>
       <c r="AF9" t="n">
         <v>3.641032840290317e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.10185185185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>1191331.694081804</v>
+        <v>1457733.213281274</v>
       </c>
     </row>
     <row r="10">
@@ -3800,28 +3800,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>964.9847043653238</v>
+        <v>1180.230687086502</v>
       </c>
       <c r="AB10" t="n">
-        <v>1320.334644633204</v>
+        <v>1614.843694174885</v>
       </c>
       <c r="AC10" t="n">
-        <v>1194.323759250722</v>
+        <v>1460.725278450192</v>
       </c>
       <c r="AD10" t="n">
-        <v>964984.7043653238</v>
+        <v>1180230.687086503</v>
       </c>
       <c r="AE10" t="n">
-        <v>1320334.644633204</v>
+        <v>1614843.694174885</v>
       </c>
       <c r="AF10" t="n">
         <v>3.640761627415807e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.11342592592592</v>
       </c>
       <c r="AH10" t="n">
-        <v>1194323.759250722</v>
+        <v>1460725.278450192</v>
       </c>
     </row>
   </sheetData>
@@ -4097,28 +4097,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1757.036146535051</v>
+        <v>2086.140652219946</v>
       </c>
       <c r="AB2" t="n">
-        <v>2404.05437065331</v>
+        <v>2854.34967439747</v>
       </c>
       <c r="AC2" t="n">
-        <v>2174.614795629659</v>
+        <v>2581.934547577904</v>
       </c>
       <c r="AD2" t="n">
-        <v>1757036.146535051</v>
+        <v>2086140.652219946</v>
       </c>
       <c r="AE2" t="n">
-        <v>2404054.37065331</v>
+        <v>2854349.67439747</v>
       </c>
       <c r="AF2" t="n">
         <v>2.577184557249089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.63194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2174614.795629659</v>
+        <v>2581934.547577904</v>
       </c>
     </row>
     <row r="3">
@@ -4203,28 +4203,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1179.281753666837</v>
+        <v>1430.840380924382</v>
       </c>
       <c r="AB3" t="n">
-        <v>1613.545321606111</v>
+        <v>1957.738933403262</v>
       </c>
       <c r="AC3" t="n">
-        <v>1459.550820737105</v>
+        <v>1770.895077303104</v>
       </c>
       <c r="AD3" t="n">
-        <v>1179281.753666837</v>
+        <v>1430840.380924382</v>
       </c>
       <c r="AE3" t="n">
-        <v>1613545.321606111</v>
+        <v>1957738.933403262</v>
       </c>
       <c r="AF3" t="n">
         <v>3.404245799813796e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.45138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1459550.820737105</v>
+        <v>1770895.077303105</v>
       </c>
     </row>
     <row r="4">
@@ -4309,28 +4309,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1032.849170142024</v>
+        <v>1265.046699099353</v>
       </c>
       <c r="AB4" t="n">
-        <v>1413.189800677811</v>
+        <v>1730.892703629233</v>
       </c>
       <c r="AC4" t="n">
-        <v>1278.316949525463</v>
+        <v>1565.698733318025</v>
       </c>
       <c r="AD4" t="n">
-        <v>1032849.170142024</v>
+        <v>1265046.699099353</v>
       </c>
       <c r="AE4" t="n">
-        <v>1413189.800677811</v>
+        <v>1730892.703629232</v>
       </c>
       <c r="AF4" t="n">
         <v>3.713021265507582e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.25</v>
       </c>
       <c r="AH4" t="n">
-        <v>1278316.949525463</v>
+        <v>1565698.733318025</v>
       </c>
     </row>
     <row r="5">
@@ -4415,28 +4415,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>953.2610380590621</v>
+        <v>1175.778017866283</v>
       </c>
       <c r="AB5" t="n">
-        <v>1304.293807181322</v>
+        <v>1608.751355709878</v>
       </c>
       <c r="AC5" t="n">
-        <v>1179.813836811792</v>
+        <v>1455.214384217636</v>
       </c>
       <c r="AD5" t="n">
-        <v>953261.0380590621</v>
+        <v>1175778.017866283</v>
       </c>
       <c r="AE5" t="n">
-        <v>1304293.807181322</v>
+        <v>1608751.355709878</v>
       </c>
       <c r="AF5" t="n">
         <v>3.878759946516692e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.27083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1179813.836811792</v>
+        <v>1455214.384217635</v>
       </c>
     </row>
     <row r="6">
@@ -4521,28 +4521,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>911.1359489633766</v>
+        <v>1124.00654503927</v>
       </c>
       <c r="AB6" t="n">
-        <v>1246.656401852835</v>
+        <v>1537.915342591774</v>
       </c>
       <c r="AC6" t="n">
-        <v>1127.677264553249</v>
+        <v>1391.138860772555</v>
       </c>
       <c r="AD6" t="n">
-        <v>911135.9489633766</v>
+        <v>1124006.54503927</v>
       </c>
       <c r="AE6" t="n">
-        <v>1246656.401852835</v>
+        <v>1537915.342591774</v>
       </c>
       <c r="AF6" t="n">
         <v>3.958587529670587e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.37962962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>1127677.264553249</v>
+        <v>1391138.860772555</v>
       </c>
     </row>
     <row r="7">
@@ -4627,28 +4627,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>905.0110708430898</v>
+        <v>1117.881666918983</v>
       </c>
       <c r="AB7" t="n">
-        <v>1238.276073398107</v>
+        <v>1529.535014137046</v>
       </c>
       <c r="AC7" t="n">
-        <v>1120.096742884375</v>
+        <v>1383.558339103681</v>
       </c>
       <c r="AD7" t="n">
-        <v>905011.0708430898</v>
+        <v>1117881.666918983</v>
       </c>
       <c r="AE7" t="n">
-        <v>1238276.073398107</v>
+        <v>1529535.014137046</v>
       </c>
       <c r="AF7" t="n">
         <v>3.970457802258528e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.25231481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>1120096.742884375</v>
+        <v>1383558.339103681</v>
       </c>
     </row>
   </sheetData>
@@ -4924,28 +4924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>918.1987533542656</v>
+        <v>1151.984311620943</v>
       </c>
       <c r="AB2" t="n">
-        <v>1256.320042409388</v>
+        <v>1576.19575712077</v>
       </c>
       <c r="AC2" t="n">
-        <v>1136.41862081809</v>
+        <v>1425.765846265802</v>
       </c>
       <c r="AD2" t="n">
-        <v>918198.7533542656</v>
+        <v>1151984.311620943</v>
       </c>
       <c r="AE2" t="n">
-        <v>1256320.042409388</v>
+        <v>1576195.75712077</v>
       </c>
       <c r="AF2" t="n">
         <v>4.84913512144868e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.43287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1136418.62081809</v>
+        <v>1425765.846265802</v>
       </c>
     </row>
     <row r="3">
@@ -5030,28 +5030,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>795.9988000043064</v>
+        <v>1011.073394791531</v>
       </c>
       <c r="AB3" t="n">
-        <v>1089.120675154516</v>
+        <v>1383.39522416386</v>
       </c>
       <c r="AC3" t="n">
-        <v>985.1765265082365</v>
+        <v>1251.365925577052</v>
       </c>
       <c r="AD3" t="n">
-        <v>795998.8000043064</v>
+        <v>1011073.394791531</v>
       </c>
       <c r="AE3" t="n">
-        <v>1089120.675154516</v>
+        <v>1383395.22416386</v>
       </c>
       <c r="AF3" t="n">
         <v>5.301864658285051e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.20833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>985176.5265082365</v>
+        <v>1251365.925577052</v>
       </c>
     </row>
   </sheetData>
@@ -5327,28 +5327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1167.239201901524</v>
+        <v>1432.717000080152</v>
       </c>
       <c r="AB2" t="n">
-        <v>1597.068171000921</v>
+        <v>1960.30660652278</v>
       </c>
       <c r="AC2" t="n">
-        <v>1444.646226259849</v>
+        <v>1773.217695303848</v>
       </c>
       <c r="AD2" t="n">
-        <v>1167239.201901524</v>
+        <v>1432717.000080152</v>
       </c>
       <c r="AE2" t="n">
-        <v>1597068.171000921</v>
+        <v>1960306.60652278</v>
       </c>
       <c r="AF2" t="n">
         <v>3.795625961023459e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1444646.226259849</v>
+        <v>1773217.695303848</v>
       </c>
     </row>
     <row r="3">
@@ -5433,28 +5433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>875.4833998480273</v>
+        <v>1093.481027576556</v>
       </c>
       <c r="AB3" t="n">
-        <v>1197.875011273756</v>
+        <v>1496.148982908505</v>
       </c>
       <c r="AC3" t="n">
-        <v>1083.551501425925</v>
+        <v>1353.358623838002</v>
       </c>
       <c r="AD3" t="n">
-        <v>875483.3998480273</v>
+        <v>1093481.027576556</v>
       </c>
       <c r="AE3" t="n">
-        <v>1197875.011273756</v>
+        <v>1496148.982908505</v>
       </c>
       <c r="AF3" t="n">
         <v>4.572937444039841e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.39351851851851</v>
       </c>
       <c r="AH3" t="n">
-        <v>1083551.501425925</v>
+        <v>1353358.623838002</v>
       </c>
     </row>
     <row r="4">
@@ -5539,28 +5539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>830.0241963198442</v>
+        <v>1038.573419338675</v>
       </c>
       <c r="AB4" t="n">
-        <v>1135.675723487979</v>
+        <v>1421.021970964721</v>
       </c>
       <c r="AC4" t="n">
-        <v>1027.288426369174</v>
+        <v>1285.401628472709</v>
       </c>
       <c r="AD4" t="n">
-        <v>830024.1963198442</v>
+        <v>1038573.419338675</v>
       </c>
       <c r="AE4" t="n">
-        <v>1135675.723487979</v>
+        <v>1421021.970964721</v>
       </c>
       <c r="AF4" t="n">
         <v>4.713728748647099e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.03935185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1027288.426369174</v>
+        <v>1285401.62847271</v>
       </c>
     </row>
     <row r="5">
@@ -5645,28 +5645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>834.1691371140669</v>
+        <v>1042.718360132898</v>
       </c>
       <c r="AB5" t="n">
-        <v>1141.347014344516</v>
+        <v>1426.693261821258</v>
       </c>
       <c r="AC5" t="n">
-        <v>1032.41845718607</v>
+        <v>1290.531659289606</v>
       </c>
       <c r="AD5" t="n">
-        <v>834169.1371140669</v>
+        <v>1042718.360132898</v>
       </c>
       <c r="AE5" t="n">
-        <v>1141347.014344516</v>
+        <v>1426693.261821258</v>
       </c>
       <c r="AF5" t="n">
         <v>4.709783005078488e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.07407407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>1032418.45718607</v>
+        <v>1290531.659289606</v>
       </c>
     </row>
   </sheetData>
@@ -5942,28 +5942,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>786.8913542410762</v>
+        <v>1008.819705602843</v>
       </c>
       <c r="AB2" t="n">
-        <v>1076.659466069115</v>
+        <v>1380.311627190147</v>
       </c>
       <c r="AC2" t="n">
-        <v>973.9045977285289</v>
+        <v>1248.576622770654</v>
       </c>
       <c r="AD2" t="n">
-        <v>786891.3542410762</v>
+        <v>1008819.705602843</v>
       </c>
       <c r="AE2" t="n">
-        <v>1076659.466069115</v>
+        <v>1380311.627190147</v>
       </c>
       <c r="AF2" t="n">
         <v>5.814004427904872e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.22222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>973904.5977285289</v>
+        <v>1248576.622770655</v>
       </c>
     </row>
     <row r="3">
@@ -6048,28 +6048,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>772.9389391855208</v>
+        <v>994.9346103549922</v>
       </c>
       <c r="AB3" t="n">
-        <v>1057.569156252994</v>
+        <v>1361.313427304868</v>
       </c>
       <c r="AC3" t="n">
-        <v>956.6362402878407</v>
+        <v>1231.391584418286</v>
       </c>
       <c r="AD3" t="n">
-        <v>772938.9391855208</v>
+        <v>994934.6103549922</v>
       </c>
       <c r="AE3" t="n">
-        <v>1057569.156252994</v>
+        <v>1361313.427304868</v>
       </c>
       <c r="AF3" t="n">
         <v>5.871883541752639e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.75925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>956636.2402878407</v>
+        <v>1231391.584418286</v>
       </c>
     </row>
   </sheetData>
@@ -6345,28 +6345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1867.992192813893</v>
+        <v>2217.411129715317</v>
       </c>
       <c r="AB2" t="n">
-        <v>2555.86932820731</v>
+        <v>3033.959732951552</v>
       </c>
       <c r="AC2" t="n">
-        <v>2311.940746708335</v>
+        <v>2744.402874227771</v>
       </c>
       <c r="AD2" t="n">
-        <v>1867992.192813893</v>
+        <v>2217411.129715317</v>
       </c>
       <c r="AE2" t="n">
-        <v>2555869.328207309</v>
+        <v>3033959.732951552</v>
       </c>
       <c r="AF2" t="n">
         <v>2.435434450174285e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.80787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>2311940.746708335</v>
+        <v>2744402.874227771</v>
       </c>
     </row>
     <row r="3">
@@ -6451,28 +6451,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1233.400821374827</v>
+        <v>1485.731482317838</v>
       </c>
       <c r="AB3" t="n">
-        <v>1687.593417608944</v>
+        <v>2032.843359954271</v>
       </c>
       <c r="AC3" t="n">
-        <v>1526.531870384583</v>
+        <v>1838.83164279381</v>
       </c>
       <c r="AD3" t="n">
-        <v>1233400.821374827</v>
+        <v>1485731.482317838</v>
       </c>
       <c r="AE3" t="n">
-        <v>1687593.417608944</v>
+        <v>2032843.359954271</v>
       </c>
       <c r="AF3" t="n">
         <v>3.262642358250724e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.36574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1526531.870384583</v>
+        <v>1838831.64279381</v>
       </c>
     </row>
     <row r="4">
@@ -6557,28 +6557,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1066.896043345559</v>
+        <v>1299.876166698621</v>
       </c>
       <c r="AB4" t="n">
-        <v>1459.774234636925</v>
+        <v>1778.547917766216</v>
       </c>
       <c r="AC4" t="n">
-        <v>1320.455430489182</v>
+        <v>1608.805800702288</v>
       </c>
       <c r="AD4" t="n">
-        <v>1066896.043345559</v>
+        <v>1299876.166698621</v>
       </c>
       <c r="AE4" t="n">
-        <v>1459774.234636925</v>
+        <v>1778547.917766216</v>
       </c>
       <c r="AF4" t="n">
         <v>3.578293196620518e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.8287037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1320455.430489182</v>
+        <v>1608805.800702288</v>
       </c>
     </row>
     <row r="5">
@@ -6663,28 +6663,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>985.0844833492164</v>
+        <v>1208.355678003451</v>
       </c>
       <c r="AB5" t="n">
-        <v>1347.836048978631</v>
+        <v>1653.325547534483</v>
       </c>
       <c r="AC5" t="n">
-        <v>1219.200468163886</v>
+        <v>1495.534477734771</v>
       </c>
       <c r="AD5" t="n">
-        <v>985084.4833492164</v>
+        <v>1208355.678003451</v>
       </c>
       <c r="AE5" t="n">
-        <v>1347836.048978631</v>
+        <v>1653325.547534483</v>
       </c>
       <c r="AF5" t="n">
         <v>3.746978162997037e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.72222222222223</v>
       </c>
       <c r="AH5" t="n">
-        <v>1219200.468163886</v>
+        <v>1495534.477734771</v>
       </c>
     </row>
     <row r="6">
@@ -6769,28 +6769,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>934.7435933476796</v>
+        <v>1157.980622583134</v>
       </c>
       <c r="AB6" t="n">
-        <v>1278.957422395204</v>
+        <v>1584.400174317808</v>
       </c>
       <c r="AC6" t="n">
-        <v>1156.895521029821</v>
+        <v>1433.187245400527</v>
       </c>
       <c r="AD6" t="n">
-        <v>934743.5933476796</v>
+        <v>1157980.622583134</v>
       </c>
       <c r="AE6" t="n">
-        <v>1278957.422395204</v>
+        <v>1584400.174317808</v>
       </c>
       <c r="AF6" t="n">
         <v>3.844279705833964e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.58796296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>1156895.521029821</v>
+        <v>1433187.245400527</v>
       </c>
     </row>
     <row r="7">
@@ -6875,28 +6875,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>922.0837444268337</v>
+        <v>1135.578690574537</v>
       </c>
       <c r="AB7" t="n">
-        <v>1261.635658588586</v>
+        <v>1553.748862640157</v>
       </c>
       <c r="AC7" t="n">
-        <v>1141.226922049659</v>
+        <v>1405.461251890005</v>
       </c>
       <c r="AD7" t="n">
-        <v>922083.7444268337</v>
+        <v>1135578.690574537</v>
       </c>
       <c r="AE7" t="n">
-        <v>1261635.658588586</v>
+        <v>1553748.862640157</v>
       </c>
       <c r="AF7" t="n">
         <v>3.87280411645729e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.27546296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>1141226.922049659</v>
+        <v>1405461.251890005</v>
       </c>
     </row>
     <row r="8">
@@ -6981,28 +6981,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>923.854503566399</v>
+        <v>1137.349449714103</v>
       </c>
       <c r="AB8" t="n">
-        <v>1264.058489363719</v>
+        <v>1556.17169341529</v>
       </c>
       <c r="AC8" t="n">
-        <v>1143.418521256078</v>
+        <v>1407.652851096423</v>
       </c>
       <c r="AD8" t="n">
-        <v>923854.503566399</v>
+        <v>1137349.449714103</v>
       </c>
       <c r="AE8" t="n">
-        <v>1264058.489363719</v>
+        <v>1556171.69341529</v>
       </c>
       <c r="AF8" t="n">
         <v>3.871500970794295e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.28703703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>1143418.521256078</v>
+        <v>1407652.851096423</v>
       </c>
     </row>
   </sheetData>
@@ -7278,28 +7278,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>770.3971921123839</v>
+        <v>999.9995005453304</v>
       </c>
       <c r="AB2" t="n">
-        <v>1054.091425773561</v>
+        <v>1368.243433510474</v>
       </c>
       <c r="AC2" t="n">
-        <v>953.4904195243396</v>
+        <v>1237.660200557953</v>
       </c>
       <c r="AD2" t="n">
-        <v>770397.1921123839</v>
+        <v>999999.5005453305</v>
       </c>
       <c r="AE2" t="n">
-        <v>1054091.425773561</v>
+        <v>1368243.433510473</v>
       </c>
       <c r="AF2" t="n">
         <v>6.229220265167489e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.22916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>953490.4195243396</v>
+        <v>1237660.200557953</v>
       </c>
     </row>
     <row r="3">
@@ -7384,28 +7384,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>774.7000812294248</v>
+        <v>1004.302389662371</v>
       </c>
       <c r="AB3" t="n">
-        <v>1059.978828493567</v>
+        <v>1374.130836230479</v>
       </c>
       <c r="AC3" t="n">
-        <v>958.8159367917694</v>
+        <v>1242.985717825383</v>
       </c>
       <c r="AD3" t="n">
-        <v>774700.0812294248</v>
+        <v>1004302.389662371</v>
       </c>
       <c r="AE3" t="n">
-        <v>1059978.828493567</v>
+        <v>1374130.836230479</v>
       </c>
       <c r="AF3" t="n">
         <v>6.224288799124232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.26388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>958815.9367917695</v>
+        <v>1242985.717825383</v>
       </c>
     </row>
   </sheetData>
@@ -7681,28 +7681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1445.273912765473</v>
+        <v>1742.380019411591</v>
       </c>
       <c r="AB2" t="n">
-        <v>1977.487528430726</v>
+        <v>2384.001210940297</v>
       </c>
       <c r="AC2" t="n">
-        <v>1788.758894138475</v>
+        <v>2156.475481334869</v>
       </c>
       <c r="AD2" t="n">
-        <v>1445273.912765473</v>
+        <v>1742380.019411591</v>
       </c>
       <c r="AE2" t="n">
-        <v>1977487.528430726</v>
+        <v>2384001.210940297</v>
       </c>
       <c r="AF2" t="n">
         <v>3.094200040310864e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.34722222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>1788758.894138475</v>
+        <v>2156475.481334869</v>
       </c>
     </row>
     <row r="3">
@@ -7787,28 +7787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1024.221603239313</v>
+        <v>1263.864366991578</v>
       </c>
       <c r="AB3" t="n">
-        <v>1401.385183020133</v>
+        <v>1729.274984678563</v>
       </c>
       <c r="AC3" t="n">
-        <v>1267.638948009148</v>
+        <v>1564.235407193524</v>
       </c>
       <c r="AD3" t="n">
-        <v>1024221.603239313</v>
+        <v>1263864.366991577</v>
       </c>
       <c r="AE3" t="n">
-        <v>1401385.183020133</v>
+        <v>1729274.984678563</v>
       </c>
       <c r="AF3" t="n">
         <v>3.89800151078895e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.90509259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>1267638.948009148</v>
+        <v>1564235.407193524</v>
       </c>
     </row>
     <row r="4">
@@ -7893,28 +7893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>902.1292962488742</v>
+        <v>1122.527852626248</v>
       </c>
       <c r="AB4" t="n">
-        <v>1234.333102263378</v>
+        <v>1535.892130396973</v>
       </c>
       <c r="AC4" t="n">
-        <v>1116.530083380751</v>
+        <v>1389.308741110029</v>
       </c>
       <c r="AD4" t="n">
-        <v>902129.2962488742</v>
+        <v>1122527.852626248</v>
       </c>
       <c r="AE4" t="n">
-        <v>1234333.102263378</v>
+        <v>1535892.130396973</v>
       </c>
       <c r="AF4" t="n">
         <v>4.200516114792645e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.45601851851851</v>
       </c>
       <c r="AH4" t="n">
-        <v>1116530.083380751</v>
+        <v>1389308.741110029</v>
       </c>
     </row>
     <row r="5">
@@ -7999,28 +7999,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>863.6783398333623</v>
+        <v>1074.62410307241</v>
       </c>
       <c r="AB5" t="n">
-        <v>1181.7228073592</v>
+        <v>1470.348106893134</v>
       </c>
       <c r="AC5" t="n">
-        <v>1068.940841183214</v>
+        <v>1330.020147217782</v>
       </c>
       <c r="AD5" t="n">
-        <v>863678.3398333623</v>
+        <v>1074624.10307241</v>
       </c>
       <c r="AE5" t="n">
-        <v>1181722.8073592</v>
+        <v>1470348.106893134</v>
       </c>
       <c r="AF5" t="n">
         <v>4.289576414211333e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.53009259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>1068940.841183214</v>
+        <v>1330020.147217782</v>
       </c>
     </row>
     <row r="6">
@@ -8105,28 +8105,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>865.5705384131651</v>
+        <v>1076.516301652212</v>
       </c>
       <c r="AB6" t="n">
-        <v>1184.311796933996</v>
+        <v>1472.93709646793</v>
       </c>
       <c r="AC6" t="n">
-        <v>1071.282741226661</v>
+        <v>1332.362047261229</v>
       </c>
       <c r="AD6" t="n">
-        <v>865570.5384131651</v>
+        <v>1076516.301652212</v>
       </c>
       <c r="AE6" t="n">
-        <v>1184311.796933996</v>
+        <v>1472937.09646793</v>
       </c>
       <c r="AF6" t="n">
         <v>4.289576414211333e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.53009259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>1071282.741226661</v>
+        <v>1332362.047261229</v>
       </c>
     </row>
   </sheetData>
@@ -8402,28 +8402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1649.435884749695</v>
+        <v>1967.786218407617</v>
       </c>
       <c r="AB2" t="n">
-        <v>2256.830945490061</v>
+        <v>2692.411916626331</v>
       </c>
       <c r="AC2" t="n">
-        <v>2041.442167534615</v>
+        <v>2435.451902127372</v>
       </c>
       <c r="AD2" t="n">
-        <v>1649435.884749695</v>
+        <v>1967786.218407617</v>
       </c>
       <c r="AE2" t="n">
-        <v>2256830.945490061</v>
+        <v>2692411.916626331</v>
       </c>
       <c r="AF2" t="n">
         <v>2.733638287382326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2041442.167534615</v>
+        <v>2435451.902127372</v>
       </c>
     </row>
     <row r="3">
@@ -8508,28 +8508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1128.531059444203</v>
+        <v>1379.391079875819</v>
       </c>
       <c r="AB3" t="n">
-        <v>1544.105982808091</v>
+        <v>1887.34372992565</v>
       </c>
       <c r="AC3" t="n">
-        <v>1396.738674975244</v>
+        <v>1707.218293245106</v>
       </c>
       <c r="AD3" t="n">
-        <v>1128531.059444203</v>
+        <v>1379391.079875819</v>
       </c>
       <c r="AE3" t="n">
-        <v>1544105.982808091</v>
+        <v>1887343.72992565</v>
       </c>
       <c r="AF3" t="n">
         <v>3.550988520718312e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.6412037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1396738.674975244</v>
+        <v>1707218.293245106</v>
       </c>
     </row>
     <row r="4">
@@ -8614,28 +8614,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>988.05957344134</v>
+        <v>1219.617413006097</v>
       </c>
       <c r="AB4" t="n">
-        <v>1351.906698494386</v>
+        <v>1668.734350197786</v>
       </c>
       <c r="AC4" t="n">
-        <v>1222.88262060305</v>
+        <v>1509.472685898279</v>
       </c>
       <c r="AD4" t="n">
-        <v>988059.57344134</v>
+        <v>1219617.413006097</v>
       </c>
       <c r="AE4" t="n">
-        <v>1351906.698494386</v>
+        <v>1668734.350197786</v>
       </c>
       <c r="AF4" t="n">
         <v>3.856942800347899e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.69444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1222882.62060305</v>
+        <v>1509472.68589828</v>
       </c>
     </row>
     <row r="5">
@@ -8720,28 +8720,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>909.2298315358041</v>
+        <v>1131.136580667132</v>
       </c>
       <c r="AB5" t="n">
-        <v>1244.048367896465</v>
+        <v>1547.670971892786</v>
       </c>
       <c r="AC5" t="n">
-        <v>1125.318137697276</v>
+        <v>1399.96342650519</v>
       </c>
       <c r="AD5" t="n">
-        <v>909229.8315358041</v>
+        <v>1131136.580667132</v>
       </c>
       <c r="AE5" t="n">
-        <v>1244048.367896465</v>
+        <v>1547670.971892786</v>
       </c>
       <c r="AF5" t="n">
         <v>4.020199638457863e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.8425925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>1125318.137697276</v>
+        <v>1399963.42650519</v>
       </c>
     </row>
     <row r="6">
@@ -8826,28 +8826,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>893.0374121498915</v>
+        <v>1105.259916458865</v>
       </c>
       <c r="AB6" t="n">
-        <v>1221.893185333533</v>
+        <v>1512.265378325181</v>
       </c>
       <c r="AC6" t="n">
-        <v>1105.277414663156</v>
+        <v>1367.936893095614</v>
       </c>
       <c r="AD6" t="n">
-        <v>893037.4121498915</v>
+        <v>1105259.916458865</v>
       </c>
       <c r="AE6" t="n">
-        <v>1221893.185333533</v>
+        <v>1512265.378325181</v>
       </c>
       <c r="AF6" t="n">
         <v>4.061927598944924e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.3912037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>1105277.414663156</v>
+        <v>1367936.893095614</v>
       </c>
     </row>
     <row r="7">
@@ -8932,28 +8932,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>894.7396554926967</v>
+        <v>1106.96215980167</v>
       </c>
       <c r="AB7" t="n">
-        <v>1224.222269772835</v>
+        <v>1514.594462764484</v>
       </c>
       <c r="AC7" t="n">
-        <v>1107.384214552462</v>
+        <v>1370.04369298492</v>
       </c>
       <c r="AD7" t="n">
-        <v>894739.6554926967</v>
+        <v>1106962.15980167</v>
       </c>
       <c r="AE7" t="n">
-        <v>1224222.269772835</v>
+        <v>1514594.462764483</v>
       </c>
       <c r="AF7" t="n">
         <v>4.068476147488514e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.32175925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>1107384.214552462</v>
+        <v>1370043.69298492</v>
       </c>
     </row>
   </sheetData>
@@ -9229,28 +9229,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2126.494906043942</v>
+        <v>2497.414304323689</v>
       </c>
       <c r="AB2" t="n">
-        <v>2909.564144783492</v>
+        <v>3417.07242931899</v>
       </c>
       <c r="AC2" t="n">
-        <v>2631.87942640428</v>
+        <v>3090.951832555932</v>
       </c>
       <c r="AD2" t="n">
-        <v>2126494.906043942</v>
+        <v>2497414.304323689</v>
       </c>
       <c r="AE2" t="n">
-        <v>2909564.144783492</v>
+        <v>3417072.42931899</v>
       </c>
       <c r="AF2" t="n">
         <v>2.174083287887257e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.70370370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>2631879.42640428</v>
+        <v>3090951.832555932</v>
       </c>
     </row>
     <row r="3">
@@ -9335,28 +9335,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1340.774591960043</v>
+        <v>1604.26965110638</v>
       </c>
       <c r="AB3" t="n">
-        <v>1834.506947520074</v>
+        <v>2195.03251202568</v>
       </c>
       <c r="AC3" t="n">
-        <v>1659.42417919543</v>
+        <v>1985.541689825428</v>
       </c>
       <c r="AD3" t="n">
-        <v>1340774.591960043</v>
+        <v>1604269.65110638</v>
       </c>
       <c r="AE3" t="n">
-        <v>1834506.947520074</v>
+        <v>2195032.51202568</v>
       </c>
       <c r="AF3" t="n">
         <v>3.014976174452921e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.14814814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>1659424.17919543</v>
+        <v>1985541.689825428</v>
       </c>
     </row>
     <row r="4">
@@ -9441,28 +9441,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1157.101299079935</v>
+        <v>1391.342018714739</v>
       </c>
       <c r="AB4" t="n">
-        <v>1583.197045107717</v>
+        <v>1903.695531683271</v>
       </c>
       <c r="AC4" t="n">
-        <v>1432.098941153644</v>
+        <v>1722.009501992879</v>
       </c>
       <c r="AD4" t="n">
-        <v>1157101.299079935</v>
+        <v>1391342.018714739</v>
       </c>
       <c r="AE4" t="n">
-        <v>1583197.045107717</v>
+        <v>1903695.531683271</v>
       </c>
       <c r="AF4" t="n">
         <v>3.337821451283861e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.00925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>1432098.941153644</v>
+        <v>1722009.501992879</v>
       </c>
     </row>
     <row r="5">
@@ -9547,28 +9547,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1058.370841917942</v>
+        <v>1292.610550522889</v>
       </c>
       <c r="AB5" t="n">
-        <v>1448.109677938317</v>
+        <v>1768.606781178217</v>
       </c>
       <c r="AC5" t="n">
-        <v>1309.904122710581</v>
+        <v>1599.813432237775</v>
       </c>
       <c r="AD5" t="n">
-        <v>1058370.841917942</v>
+        <v>1292610.550522889</v>
       </c>
       <c r="AE5" t="n">
-        <v>1448109.677938317</v>
+        <v>1768606.781178217</v>
       </c>
       <c r="AF5" t="n">
         <v>3.512396019930437e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.61342592592592</v>
       </c>
       <c r="AH5" t="n">
-        <v>1309904.122710581</v>
+        <v>1599813.432237775</v>
       </c>
     </row>
     <row r="6">
@@ -9653,28 +9653,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1001.140489175063</v>
+        <v>1225.550042995534</v>
       </c>
       <c r="AB6" t="n">
-        <v>1369.804584490539</v>
+        <v>1676.851636278498</v>
       </c>
       <c r="AC6" t="n">
-        <v>1239.07235747957</v>
+        <v>1516.81526958813</v>
       </c>
       <c r="AD6" t="n">
-        <v>1001140.489175063</v>
+        <v>1225550.042995534</v>
       </c>
       <c r="AE6" t="n">
-        <v>1369804.584490539</v>
+        <v>1676851.636278498</v>
       </c>
       <c r="AF6" t="n">
         <v>3.623149116613436e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.22453703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>1239072.35747957</v>
+        <v>1516815.26958813</v>
       </c>
     </row>
     <row r="7">
@@ -9759,28 +9759,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>959.3693803149006</v>
+        <v>1174.050264577381</v>
       </c>
       <c r="AB7" t="n">
-        <v>1312.651510536801</v>
+        <v>1606.387367436908</v>
       </c>
       <c r="AC7" t="n">
-        <v>1187.373892689134</v>
+        <v>1453.076011667559</v>
       </c>
       <c r="AD7" t="n">
-        <v>959369.3803149005</v>
+        <v>1174050.264577381</v>
       </c>
       <c r="AE7" t="n">
-        <v>1312651.510536801</v>
+        <v>1606387.367436908</v>
       </c>
       <c r="AF7" t="n">
         <v>3.690708505590065e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.41435185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>1187373.892689134</v>
+        <v>1453076.011667559</v>
       </c>
     </row>
     <row r="8">
@@ -9865,28 +9865,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>947.0668633079797</v>
+        <v>1161.74774757046</v>
       </c>
       <c r="AB8" t="n">
-        <v>1295.818664019187</v>
+        <v>1589.554520919294</v>
       </c>
       <c r="AC8" t="n">
-        <v>1172.147549418112</v>
+        <v>1437.849668396537</v>
       </c>
       <c r="AD8" t="n">
-        <v>947066.8633079797</v>
+        <v>1161747.74757046</v>
       </c>
       <c r="AE8" t="n">
-        <v>1295818.664019187</v>
+        <v>1589554.520919294</v>
       </c>
       <c r="AF8" t="n">
         <v>3.717704572906545e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.10185185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>1172147.549418112</v>
+        <v>1437849.668396537</v>
       </c>
     </row>
     <row r="9">
@@ -9971,28 +9971,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>949.2723520600791</v>
+        <v>1163.95323632256</v>
       </c>
       <c r="AB9" t="n">
-        <v>1298.836311029106</v>
+        <v>1592.572167929213</v>
       </c>
       <c r="AC9" t="n">
-        <v>1174.8771964327</v>
+        <v>1440.579315411124</v>
       </c>
       <c r="AD9" t="n">
-        <v>949272.3520600791</v>
+        <v>1163953.23632256</v>
       </c>
       <c r="AE9" t="n">
-        <v>1298836.311029106</v>
+        <v>1592572.167929213</v>
       </c>
       <c r="AF9" t="n">
         <v>3.7178430142774e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.10185185185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>1174877.196432699</v>
+        <v>1440579.315411124</v>
       </c>
     </row>
   </sheetData>
@@ -10268,28 +10268,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1255.982912841975</v>
+        <v>1531.919779883685</v>
       </c>
       <c r="AB2" t="n">
-        <v>1718.491231405859</v>
+        <v>2096.04022636774</v>
       </c>
       <c r="AC2" t="n">
-        <v>1554.480840198075</v>
+        <v>1895.997088974136</v>
       </c>
       <c r="AD2" t="n">
-        <v>1255982.912841975</v>
+        <v>1531919.779883685</v>
       </c>
       <c r="AE2" t="n">
-        <v>1718491.23140586</v>
+        <v>2096040.226367739</v>
       </c>
       <c r="AF2" t="n">
         <v>3.535975578691592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.49305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1554480.840198075</v>
+        <v>1895997.088974136</v>
       </c>
     </row>
     <row r="3">
@@ -10374,28 +10374,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>930.7392726901177</v>
+        <v>1159.077429785797</v>
       </c>
       <c r="AB3" t="n">
-        <v>1273.478534213368</v>
+        <v>1585.900874320211</v>
       </c>
       <c r="AC3" t="n">
-        <v>1151.939530246392</v>
+        <v>1434.544720700946</v>
       </c>
       <c r="AD3" t="n">
-        <v>930739.2726901177</v>
+        <v>1159077.429785797</v>
       </c>
       <c r="AE3" t="n">
-        <v>1273478.534213368</v>
+        <v>1585900.874320211</v>
       </c>
       <c r="AF3" t="n">
         <v>4.31658947670126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.27314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>1151939.530246392</v>
+        <v>1434544.720700946</v>
       </c>
     </row>
     <row r="4">
@@ -10480,28 +10480,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>838.8431158515607</v>
+        <v>1057.728850765739</v>
       </c>
       <c r="AB4" t="n">
-        <v>1147.742158254544</v>
+        <v>1447.231277321221</v>
       </c>
       <c r="AC4" t="n">
-        <v>1038.203257536966</v>
+        <v>1309.109555415538</v>
       </c>
       <c r="AD4" t="n">
-        <v>838843.1158515607</v>
+        <v>1057728.850765739</v>
       </c>
       <c r="AE4" t="n">
-        <v>1147742.158254544</v>
+        <v>1447231.277321221</v>
       </c>
       <c r="AF4" t="n">
         <v>4.543887399247962e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.95833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1038203.257536966</v>
+        <v>1309109.555415538</v>
       </c>
     </row>
     <row r="5">
@@ -10586,28 +10586,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>835.4338135787071</v>
+        <v>1054.319548492885</v>
       </c>
       <c r="AB5" t="n">
-        <v>1143.077400477025</v>
+        <v>1442.566519543702</v>
       </c>
       <c r="AC5" t="n">
-        <v>1033.983697694704</v>
+        <v>1304.889995573276</v>
       </c>
       <c r="AD5" t="n">
-        <v>835433.8135787072</v>
+        <v>1054319.548492885</v>
       </c>
       <c r="AE5" t="n">
-        <v>1143077.400477025</v>
+        <v>1442566.519543702</v>
       </c>
       <c r="AF5" t="n">
         <v>4.558729936331498e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.81944444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>1033983.697694704</v>
+        <v>1304889.995573276</v>
       </c>
     </row>
   </sheetData>
@@ -10883,28 +10883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1002.664864495582</v>
+        <v>1246.987646853914</v>
       </c>
       <c r="AB2" t="n">
-        <v>1371.890302054767</v>
+        <v>1706.183511637867</v>
       </c>
       <c r="AC2" t="n">
-        <v>1240.959017086791</v>
+        <v>1543.347751930747</v>
       </c>
       <c r="AD2" t="n">
-        <v>1002664.864495582</v>
+        <v>1246987.646853914</v>
       </c>
       <c r="AE2" t="n">
-        <v>1371890.302054767</v>
+        <v>1706183.511637867</v>
       </c>
       <c r="AF2" t="n">
         <v>4.442573597271857e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.12268518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>1240959.017086791</v>
+        <v>1543347.751930747</v>
       </c>
     </row>
     <row r="3">
@@ -10989,28 +10989,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>804.6098072396539</v>
+        <v>1020.79710929975</v>
       </c>
       <c r="AB3" t="n">
-        <v>1100.902635144746</v>
+        <v>1396.699639334013</v>
       </c>
       <c r="AC3" t="n">
-        <v>995.8340327730839</v>
+        <v>1263.400586036229</v>
       </c>
       <c r="AD3" t="n">
-        <v>804609.8072396539</v>
+        <v>1020797.10929975</v>
       </c>
       <c r="AE3" t="n">
-        <v>1100902.635144746</v>
+        <v>1396699.639334013</v>
       </c>
       <c r="AF3" t="n">
         <v>5.065648567292978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.83796296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>995834.0327730839</v>
+        <v>1263400.586036229</v>
       </c>
     </row>
     <row r="4">
@@ -11095,28 +11095,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>802.4060668276882</v>
+        <v>1018.593368887784</v>
       </c>
       <c r="AB4" t="n">
-        <v>1097.88738029093</v>
+        <v>1393.684384480196</v>
       </c>
       <c r="AC4" t="n">
-        <v>993.1065496105784</v>
+        <v>1260.673102873724</v>
       </c>
       <c r="AD4" t="n">
-        <v>802406.0668276881</v>
+        <v>1018593.368887784</v>
       </c>
       <c r="AE4" t="n">
-        <v>1097887.380290929</v>
+        <v>1393684.384480196</v>
       </c>
       <c r="AF4" t="n">
         <v>5.082329314521891e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>993106.5496105785</v>
+        <v>1260673.102873724</v>
       </c>
     </row>
   </sheetData>
@@ -19589,28 +19589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>832.2669973942909</v>
+        <v>1064.847851998037</v>
       </c>
       <c r="AB2" t="n">
-        <v>1138.744422863436</v>
+        <v>1456.97180887542</v>
       </c>
       <c r="AC2" t="n">
-        <v>1030.064253383185</v>
+        <v>1317.920464309126</v>
       </c>
       <c r="AD2" t="n">
-        <v>832266.9973942909</v>
+        <v>1064847.851998037</v>
       </c>
       <c r="AE2" t="n">
-        <v>1138744.422863436</v>
+        <v>1456971.80887542</v>
       </c>
       <c r="AF2" t="n">
         <v>5.344249173764274e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.73148148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>1030064.253383185</v>
+        <v>1317920.464309126</v>
       </c>
     </row>
     <row r="3">
@@ -19695,28 +19695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>779.3789646968952</v>
+        <v>1002.653851882989</v>
       </c>
       <c r="AB3" t="n">
-        <v>1066.38068327153</v>
+        <v>1371.875234112375</v>
       </c>
       <c r="AC3" t="n">
-        <v>964.6068075347836</v>
+        <v>1240.945387207673</v>
       </c>
       <c r="AD3" t="n">
-        <v>779378.9646968952</v>
+        <v>1002653.851882989</v>
       </c>
       <c r="AE3" t="n">
-        <v>1066380.68327153</v>
+        <v>1371875.234112374</v>
       </c>
       <c r="AF3" t="n">
         <v>5.562656156782147e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.85648148148147</v>
       </c>
       <c r="AH3" t="n">
-        <v>964606.8075347836</v>
+        <v>1240945.387207673</v>
       </c>
     </row>
   </sheetData>
@@ -19992,28 +19992,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>771.7877321262632</v>
+        <v>1008.814168464395</v>
       </c>
       <c r="AB2" t="n">
-        <v>1055.994023966847</v>
+        <v>1380.304051033041</v>
       </c>
       <c r="AC2" t="n">
-        <v>955.2114364163713</v>
+        <v>1248.56976967135</v>
       </c>
       <c r="AD2" t="n">
-        <v>771787.7321262632</v>
+        <v>1008814.168464395</v>
       </c>
       <c r="AE2" t="n">
-        <v>1055994.023966847</v>
+        <v>1380304.051033041</v>
       </c>
       <c r="AF2" t="n">
         <v>6.640649880302331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.79861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>955211.4364163713</v>
+        <v>1248569.76967135</v>
       </c>
     </row>
   </sheetData>
@@ -20289,28 +20289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1542.647124534114</v>
+        <v>1850.365400039798</v>
       </c>
       <c r="AB2" t="n">
-        <v>2110.717852575502</v>
+        <v>2531.751572694577</v>
       </c>
       <c r="AC2" t="n">
-        <v>1909.273903136807</v>
+        <v>2290.124755932256</v>
       </c>
       <c r="AD2" t="n">
-        <v>1542647.124534114</v>
+        <v>1850365.400039798</v>
       </c>
       <c r="AE2" t="n">
-        <v>2110717.852575501</v>
+        <v>2531751.572694577</v>
       </c>
       <c r="AF2" t="n">
         <v>2.909277419599162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.29166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1909273.903136807</v>
+        <v>2290124.755932256</v>
       </c>
     </row>
     <row r="3">
@@ -20395,28 +20395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1075.565990595592</v>
+        <v>1316.042704982241</v>
       </c>
       <c r="AB3" t="n">
-        <v>1471.636838955497</v>
+        <v>1800.667688663197</v>
       </c>
       <c r="AC3" t="n">
-        <v>1331.185884500859</v>
+        <v>1628.814491710155</v>
       </c>
       <c r="AD3" t="n">
-        <v>1075565.990595591</v>
+        <v>1316042.704982241</v>
       </c>
       <c r="AE3" t="n">
-        <v>1471636.838955497</v>
+        <v>1800667.688663197</v>
       </c>
       <c r="AF3" t="n">
         <v>3.719002030005927e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.73842592592592</v>
       </c>
       <c r="AH3" t="n">
-        <v>1331185.884500859</v>
+        <v>1628814.491710155</v>
       </c>
     </row>
     <row r="4">
@@ -20501,28 +20501,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>951.025845938703</v>
+        <v>1172.194370133213</v>
       </c>
       <c r="AB4" t="n">
-        <v>1301.23551871253</v>
+        <v>1603.848050782112</v>
       </c>
       <c r="AC4" t="n">
-        <v>1177.047427102126</v>
+        <v>1450.779043830344</v>
       </c>
       <c r="AD4" t="n">
-        <v>951025.845938703</v>
+        <v>1172194.370133213</v>
       </c>
       <c r="AE4" t="n">
-        <v>1301235.51871253</v>
+        <v>1603848.050782112</v>
       </c>
       <c r="AF4" t="n">
         <v>4.024351670364307e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.03472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1177047.427102126</v>
+        <v>1450779.043830344</v>
       </c>
     </row>
     <row r="5">
@@ -20607,28 +20607,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>883.1387759186028</v>
+        <v>1094.788350147381</v>
       </c>
       <c r="AB5" t="n">
-        <v>1208.349434544873</v>
+        <v>1497.937719324908</v>
       </c>
       <c r="AC5" t="n">
-        <v>1093.026260440993</v>
+        <v>1354.976645761331</v>
       </c>
       <c r="AD5" t="n">
-        <v>883138.7759186028</v>
+        <v>1094788.350147381</v>
       </c>
       <c r="AE5" t="n">
-        <v>1208349.434544873</v>
+        <v>1497937.719324908</v>
       </c>
       <c r="AF5" t="n">
         <v>4.160741176391051e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.55324074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>1093026.260440993</v>
+        <v>1354976.645761331</v>
       </c>
     </row>
     <row r="6">
@@ -20713,28 +20713,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>879.7830067470495</v>
+        <v>1091.331095749343</v>
       </c>
       <c r="AB6" t="n">
-        <v>1203.757923118267</v>
+        <v>1493.207351334212</v>
       </c>
       <c r="AC6" t="n">
-        <v>1088.872956420715</v>
+        <v>1350.697737452554</v>
       </c>
       <c r="AD6" t="n">
-        <v>879783.0067470495</v>
+        <v>1091331.095749343</v>
       </c>
       <c r="AE6" t="n">
-        <v>1203757.923118267</v>
+        <v>1493207.351334212</v>
       </c>
       <c r="AF6" t="n">
         <v>4.170606318618014e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.46064814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>1088872.956420715</v>
+        <v>1350697.737452554</v>
       </c>
     </row>
   </sheetData>
@@ -21010,28 +21010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1997.732774643131</v>
+        <v>2348.139125963206</v>
       </c>
       <c r="AB2" t="n">
-        <v>2733.386116016581</v>
+        <v>3212.827544730082</v>
       </c>
       <c r="AC2" t="n">
-        <v>2472.515581435466</v>
+        <v>2906.1997930927</v>
       </c>
       <c r="AD2" t="n">
-        <v>1997732.774643131</v>
+        <v>2348139.125963206</v>
       </c>
       <c r="AE2" t="n">
-        <v>2733386.116016581</v>
+        <v>3212827.544730082</v>
       </c>
       <c r="AF2" t="n">
         <v>2.301113688906524e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>71.16898148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>2472515.581435466</v>
+        <v>2906199.793092701</v>
       </c>
     </row>
     <row r="3">
@@ -21116,28 +21116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1286.679929456344</v>
+        <v>1549.425156220996</v>
       </c>
       <c r="AB3" t="n">
-        <v>1760.492243794434</v>
+        <v>2119.991854555148</v>
       </c>
       <c r="AC3" t="n">
-        <v>1592.473334913075</v>
+        <v>1917.662807383659</v>
       </c>
       <c r="AD3" t="n">
-        <v>1286679.929456344</v>
+        <v>1549425.156220996</v>
       </c>
       <c r="AE3" t="n">
-        <v>1760492.243794434</v>
+        <v>2119991.854555148</v>
       </c>
       <c r="AF3" t="n">
         <v>3.134370684170037e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.24537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1592473.334913075</v>
+        <v>1917662.807383659</v>
       </c>
     </row>
     <row r="4">
@@ -21222,28 +21222,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1112.516480357632</v>
+        <v>1346.086886162185</v>
       </c>
       <c r="AB4" t="n">
-        <v>1522.194129188479</v>
+        <v>1841.775462809324</v>
       </c>
       <c r="AC4" t="n">
-        <v>1376.918057911608</v>
+        <v>1665.998997586899</v>
       </c>
       <c r="AD4" t="n">
-        <v>1112516.480357632</v>
+        <v>1346086.886162185</v>
       </c>
       <c r="AE4" t="n">
-        <v>1522194.129188479</v>
+        <v>1841775.462809324</v>
       </c>
       <c r="AF4" t="n">
         <v>3.45301472447118e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.43055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>1376918.057911608</v>
+        <v>1665998.997586899</v>
       </c>
     </row>
     <row r="5">
@@ -21328,28 +21328,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026.431461980844</v>
+        <v>1250.265538992437</v>
       </c>
       <c r="AB5" t="n">
-        <v>1404.408809242382</v>
+        <v>1710.668468272189</v>
       </c>
       <c r="AC5" t="n">
-        <v>1270.374003588432</v>
+        <v>1547.404670598565</v>
       </c>
       <c r="AD5" t="n">
-        <v>1026431.461980844</v>
+        <v>1250265.538992437</v>
       </c>
       <c r="AE5" t="n">
-        <v>1404408.809242382</v>
+        <v>1710668.468272189</v>
       </c>
       <c r="AF5" t="n">
         <v>3.627618075151292e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.13888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1270374.003588432</v>
+        <v>1547404.670598565</v>
       </c>
     </row>
     <row r="6">
@@ -21434,28 +21434,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>958.4328078865478</v>
+        <v>1182.300039287064</v>
       </c>
       <c r="AB6" t="n">
-        <v>1311.37005082167</v>
+        <v>1617.67507314907</v>
       </c>
       <c r="AC6" t="n">
-        <v>1186.214733690675</v>
+        <v>1463.286434588947</v>
       </c>
       <c r="AD6" t="n">
-        <v>958432.8078865479</v>
+        <v>1182300.039287064</v>
       </c>
       <c r="AE6" t="n">
-        <v>1311370.05082167</v>
+        <v>1617675.07314907</v>
       </c>
       <c r="AF6" t="n">
         <v>3.739115190496452e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.7962962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>1186214.733690675</v>
+        <v>1463286.434588947</v>
       </c>
     </row>
     <row r="7">
@@ -21540,28 +21540,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>934.8236920915239</v>
+        <v>1148.921440310157</v>
       </c>
       <c r="AB7" t="n">
-        <v>1279.067017030239</v>
+        <v>1572.005001469006</v>
       </c>
       <c r="AC7" t="n">
-        <v>1156.994656106705</v>
+        <v>1421.97505045168</v>
       </c>
       <c r="AD7" t="n">
-        <v>934823.6920915239</v>
+        <v>1148921.440310157</v>
       </c>
       <c r="AE7" t="n">
-        <v>1279067.017030239</v>
+        <v>1572005.001469006</v>
       </c>
       <c r="AF7" t="n">
         <v>3.788921008518656e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.2175925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>1156994.656106705</v>
+        <v>1421975.05045168</v>
       </c>
     </row>
     <row r="8">
@@ -21646,28 +21646,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>934.4506991410369</v>
+        <v>1148.54844735967</v>
       </c>
       <c r="AB8" t="n">
-        <v>1278.556671620095</v>
+        <v>1571.494656058862</v>
       </c>
       <c r="AC8" t="n">
-        <v>1156.533017346231</v>
+        <v>1421.513411691206</v>
       </c>
       <c r="AD8" t="n">
-        <v>934450.699141037</v>
+        <v>1148548.44735967</v>
       </c>
       <c r="AE8" t="n">
-        <v>1278556.671620095</v>
+        <v>1571494.656058862</v>
       </c>
       <c r="AF8" t="n">
         <v>3.794156279163036e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.15972222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1156533.017346231</v>
+        <v>1421513.411691206</v>
       </c>
     </row>
   </sheetData>
@@ -21943,28 +21943,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>810.6841764515328</v>
+        <v>1072.510422407129</v>
       </c>
       <c r="AB2" t="n">
-        <v>1109.213855082696</v>
+        <v>1467.456075757889</v>
       </c>
       <c r="AC2" t="n">
-        <v>1003.352041545026</v>
+        <v>1327.404127475093</v>
       </c>
       <c r="AD2" t="n">
-        <v>810684.1764515329</v>
+        <v>1072510.422407129</v>
       </c>
       <c r="AE2" t="n">
-        <v>1109213.855082696</v>
+        <v>1467456.075757889</v>
       </c>
       <c r="AF2" t="n">
         <v>7.019386450052767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.59722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1003352.041545026</v>
+        <v>1327404.127475093</v>
       </c>
     </row>
   </sheetData>
@@ -22240,28 +22240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1080.767709763573</v>
+        <v>1345.072233601638</v>
       </c>
       <c r="AB2" t="n">
-        <v>1478.754060604783</v>
+        <v>1840.387170412672</v>
       </c>
       <c r="AC2" t="n">
-        <v>1337.623848505021</v>
+        <v>1664.743201868102</v>
       </c>
       <c r="AD2" t="n">
-        <v>1080767.709763573</v>
+        <v>1345072.233601638</v>
       </c>
       <c r="AE2" t="n">
-        <v>1478754.060604783</v>
+        <v>1840387.170412672</v>
       </c>
       <c r="AF2" t="n">
         <v>4.090474654738343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.95138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1337623.848505021</v>
+        <v>1664743.201868102</v>
       </c>
     </row>
     <row r="3">
@@ -22346,28 +22346,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>829.4066630245189</v>
+        <v>1046.563978397572</v>
       </c>
       <c r="AB3" t="n">
-        <v>1134.830787189668</v>
+        <v>1431.95500638769</v>
       </c>
       <c r="AC3" t="n">
-        <v>1026.524129605299</v>
+        <v>1295.291230339522</v>
       </c>
       <c r="AD3" t="n">
-        <v>829406.663024519</v>
+        <v>1046563.978397572</v>
       </c>
       <c r="AE3" t="n">
-        <v>1134830.787189668</v>
+        <v>1431955.00638769</v>
       </c>
       <c r="AF3" t="n">
         <v>4.827052028745577e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.87268518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>1026524.129605299</v>
+        <v>1295291.230339522</v>
       </c>
     </row>
     <row r="4">
@@ -22452,28 +22452,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>817.9613292532117</v>
+        <v>1035.01715939978</v>
       </c>
       <c r="AB4" t="n">
-        <v>1119.170776591276</v>
+        <v>1416.156139225209</v>
       </c>
       <c r="AC4" t="n">
-        <v>1012.358688439454</v>
+        <v>1281.000184885179</v>
       </c>
       <c r="AD4" t="n">
-        <v>817961.3292532117</v>
+        <v>1035017.15939978</v>
       </c>
       <c r="AE4" t="n">
-        <v>1119170.776591276</v>
+        <v>1416156.139225209</v>
       </c>
       <c r="AF4" t="n">
         <v>4.883006458325904e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.36342592592592</v>
       </c>
       <c r="AH4" t="n">
-        <v>1012358.688439454</v>
+        <v>1281000.184885179</v>
       </c>
     </row>
   </sheetData>
@@ -22749,28 +22749,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1346.357320648714</v>
+        <v>1632.870108477114</v>
       </c>
       <c r="AB2" t="n">
-        <v>1842.145483204521</v>
+        <v>2234.164919563446</v>
       </c>
       <c r="AC2" t="n">
-        <v>1666.333703754905</v>
+        <v>2020.939355310469</v>
       </c>
       <c r="AD2" t="n">
-        <v>1346357.320648714</v>
+        <v>1632870.108477114</v>
       </c>
       <c r="AE2" t="n">
-        <v>1842145.483204521</v>
+        <v>2234164.919563446</v>
       </c>
       <c r="AF2" t="n">
         <v>3.308377147902906e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.29861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1666333.703754905</v>
+        <v>2020939.355310469</v>
       </c>
     </row>
     <row r="3">
@@ -22855,28 +22855,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>980.1210658128124</v>
+        <v>1209.33833136526</v>
       </c>
       <c r="AB3" t="n">
-        <v>1341.044882134796</v>
+        <v>1654.670057215716</v>
       </c>
       <c r="AC3" t="n">
-        <v>1213.057440752163</v>
+        <v>1496.750669299059</v>
       </c>
       <c r="AD3" t="n">
-        <v>980121.0658128124</v>
+        <v>1209338.33136526</v>
       </c>
       <c r="AE3" t="n">
-        <v>1341044.882134796</v>
+        <v>1654670.057215716</v>
       </c>
       <c r="AF3" t="n">
         <v>4.102061058221307e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.01388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1213057.440752163</v>
+        <v>1496750.669299059</v>
       </c>
     </row>
     <row r="4">
@@ -22961,28 +22961,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>873.5207794001035</v>
+        <v>1083.662314473087</v>
       </c>
       <c r="AB4" t="n">
-        <v>1195.189667392203</v>
+        <v>1482.714586469287</v>
       </c>
       <c r="AC4" t="n">
-        <v>1081.122442995524</v>
+        <v>1341.20638733965</v>
       </c>
       <c r="AD4" t="n">
-        <v>873520.7794001035</v>
+        <v>1083662.314473087</v>
       </c>
       <c r="AE4" t="n">
-        <v>1195189.667392203</v>
+        <v>1482714.586469287</v>
       </c>
       <c r="AF4" t="n">
         <v>4.376509389167014e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1081122.442995524</v>
+        <v>1341206.38733965</v>
       </c>
     </row>
     <row r="5">
@@ -23067,28 +23067,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>850.9557072115815</v>
+        <v>1070.65117920383</v>
       </c>
       <c r="AB5" t="n">
-        <v>1164.315140123141</v>
+        <v>1464.912177183113</v>
       </c>
       <c r="AC5" t="n">
-        <v>1053.19453727635</v>
+        <v>1325.10301500991</v>
       </c>
       <c r="AD5" t="n">
-        <v>850955.7072115815</v>
+        <v>1070651.17920383</v>
       </c>
       <c r="AE5" t="n">
-        <v>1164315.140123141</v>
+        <v>1464912.177183113</v>
       </c>
       <c r="AF5" t="n">
         <v>4.413502424667894e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.7037037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1053194.53727635</v>
+        <v>1325103.01500991</v>
       </c>
     </row>
   </sheetData>
